--- a/data/trans_orig/P36B05-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6694</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2872</v>
+        <v>2876</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12590</v>
+        <v>13826</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00965886804815007</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004144507132771051</v>
+        <v>0.004149580636276805</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01816499857845905</v>
+        <v>0.01994868883955875</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -765,19 +765,19 @@
         <v>10963</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5780</v>
+        <v>6009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18860</v>
+        <v>18794</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0159258797183166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008396164243448117</v>
+        <v>0.008729649178261948</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02739901536057057</v>
+        <v>0.02730256772016247</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -786,19 +786,19 @@
         <v>17657</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10744</v>
+        <v>10550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27792</v>
+        <v>26981</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01278165336666932</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007777460111195192</v>
+        <v>0.007636917859795605</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02011822251200563</v>
+        <v>0.01953110355984608</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>63969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>51339</v>
+        <v>51308</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81434</v>
+        <v>82046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09229646729255191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07407460093972769</v>
+        <v>0.07402870680004482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1174965057280852</v>
+        <v>0.1183797707128425</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -836,19 +836,19 @@
         <v>69819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55241</v>
+        <v>57231</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86221</v>
+        <v>88012</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1014291458823803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08025183877709759</v>
+        <v>0.08314225018186247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1252574618293083</v>
+        <v>0.1278593836984577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -857,19 +857,19 @@
         <v>133787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113665</v>
+        <v>113557</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157932</v>
+        <v>155275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09684718398498043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08228110256919721</v>
+        <v>0.08220294144816763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1143254088693174</v>
+        <v>0.1124015057984688</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>391060</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>363240</v>
+        <v>362296</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>417734</v>
+        <v>415610</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.564237109812308</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5240969180260198</v>
+        <v>0.522735691984489</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.602724402565935</v>
+        <v>0.5996587069133781</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>390</v>
@@ -907,19 +907,19 @@
         <v>382042</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>355247</v>
+        <v>358327</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>406302</v>
+        <v>406930</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5550105543506023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5160839817189525</v>
+        <v>0.5205583377491209</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5902541994887259</v>
+        <v>0.5911663765889633</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>773</v>
@@ -928,19 +928,19 @@
         <v>773102</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>736935</v>
+        <v>735806</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>811643</v>
+        <v>807483</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5596396152722104</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5334587435825514</v>
+        <v>0.5326414161976923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5875394461144779</v>
+        <v>0.5845277687767474</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>211426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>187885</v>
+        <v>187445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>237025</v>
+        <v>237892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3050540295875629</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2710888841292707</v>
+        <v>0.2704527795898939</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3419892609696208</v>
+        <v>0.3432397404292239</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>210</v>
@@ -978,19 +978,19 @@
         <v>207738</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>186230</v>
+        <v>186330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235346</v>
+        <v>233439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.301791448705651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2705452820219303</v>
+        <v>0.2706899789475063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3418987525048853</v>
+        <v>0.3391276205398605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>419</v>
@@ -999,19 +999,19 @@
         <v>419164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>383205</v>
+        <v>386021</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>449783</v>
+        <v>454494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3034283202040913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2773973954912075</v>
+        <v>0.2794363227201263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3255930146366927</v>
+        <v>0.3290029777989856</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>19928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12841</v>
+        <v>12402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30039</v>
+        <v>30944</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02875352525942708</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01852704526794421</v>
+        <v>0.01789475520578906</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04334113504913933</v>
+        <v>0.04464738792457056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1049,19 +1049,19 @@
         <v>17789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10652</v>
+        <v>10718</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28713</v>
+        <v>28156</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0258429713430498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01547528014340503</v>
+        <v>0.01557023426414426</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0417129867743129</v>
+        <v>0.04090346308142458</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1070,19 +1070,19 @@
         <v>37717</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27512</v>
+        <v>27008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>52587</v>
+        <v>52554</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02730322717204851</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01991557768587219</v>
+        <v>0.01955095724362916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03806735878921098</v>
+        <v>0.0380432995064402</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>10165</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5085</v>
+        <v>5044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18010</v>
+        <v>18138</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01056890765546396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005286791933985403</v>
+        <v>0.005243979540983299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01872562127468468</v>
+        <v>0.01885826294079685</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1195,19 +1195,19 @@
         <v>14075</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7912</v>
+        <v>7709</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23015</v>
+        <v>23167</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01456572233789649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008187483763697474</v>
+        <v>0.007977960267451161</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02381665459987709</v>
+        <v>0.02397432425020601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1216,19 +1216,19 @@
         <v>24241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15680</v>
+        <v>16359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36048</v>
+        <v>36855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01257201443114604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008132459654174739</v>
+        <v>0.008484223006930407</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01869592955203512</v>
+        <v>0.01911428020347935</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>78264</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63527</v>
+        <v>62988</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>96866</v>
+        <v>97416</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08137216244728442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06605001730657739</v>
+        <v>0.06549013098286983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1007133509401326</v>
+        <v>0.1012853384464567</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1266,19 +1266,19 @@
         <v>79228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62312</v>
+        <v>62616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99087</v>
+        <v>97347</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08198819432955676</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06448327105202978</v>
+        <v>0.06479747148422348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1025388568288775</v>
+        <v>0.1007382302090579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>146</v>
@@ -1287,19 +1287,19 @@
         <v>157492</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>135171</v>
+        <v>131933</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>184485</v>
+        <v>183884</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0816809027155885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07010461728657859</v>
+        <v>0.06842517178768438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09568063667729532</v>
+        <v>0.09536884280860607</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>555514</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>521437</v>
+        <v>525189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>583868</v>
+        <v>587544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5775778641176094</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5421474560223971</v>
+        <v>0.5460475977214373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6070581075077383</v>
+        <v>0.610879660972224</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>545</v>
@@ -1337,19 +1337,19 @@
         <v>584772</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>552828</v>
+        <v>553370</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>619059</v>
+        <v>616184</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6051449033014117</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5720879195695587</v>
+        <v>0.5726483834803082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6406259885317416</v>
+        <v>0.6376509950501377</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1062</v>
@@ -1358,19 +1358,19 @@
         <v>1140286</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1096773</v>
+        <v>1096874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1181966</v>
+        <v>1183631</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5913937968945977</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5688259257149472</v>
+        <v>0.5688786366891708</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6130101499348727</v>
+        <v>0.6138736741532194</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>289619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>260824</v>
+        <v>260314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>320103</v>
+        <v>317547</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.301121483697347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2711835962649313</v>
+        <v>0.2706533489524757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3328169245862465</v>
+        <v>0.3301590310117357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>264</v>
@@ -1408,19 +1408,19 @@
         <v>275671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>242970</v>
+        <v>242786</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>302615</v>
+        <v>302952</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2852748719599099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.251434386912038</v>
+        <v>0.2512443784936541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3131577317000413</v>
+        <v>0.3135064637140036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>533</v>
@@ -1429,19 +1429,19 @@
         <v>565289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>525353</v>
+        <v>525131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>603603</v>
+        <v>608794</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2931795454627865</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2724672789914521</v>
+        <v>0.2723517153033292</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3130504799294699</v>
+        <v>0.3157425849357853</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>28238</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18357</v>
+        <v>18284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40368</v>
+        <v>40444</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02935958208229526</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01908609171348475</v>
+        <v>0.01900995678495903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.041970788845825</v>
+        <v>0.04205007861685896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1479,19 +1479,19 @@
         <v>12588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6983</v>
+        <v>7098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21873</v>
+        <v>21625</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01302630807122516</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007226171520468257</v>
+        <v>0.007345662629738183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02263491344548762</v>
+        <v>0.02237827318695733</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1500,19 +1500,19 @@
         <v>40826</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29542</v>
+        <v>28906</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56716</v>
+        <v>56112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02117374049588118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01532162595758406</v>
+        <v>0.01499160963518579</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02941516737125071</v>
+        <v>0.02910160998968496</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>3580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11499</v>
+        <v>10487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005291266659842409</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001336634927158209</v>
+        <v>0.00132618881470925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.016997442392083</v>
+        <v>0.0155016183138122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1625,19 +1625,19 @@
         <v>4727</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1874</v>
+        <v>983</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11148</v>
+        <v>10484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006911715215232977</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002740051667286382</v>
+        <v>0.001436915307516023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01630224871737257</v>
+        <v>0.01533106464104745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1646,19 +1646,19 @@
         <v>8306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3758</v>
+        <v>3781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16536</v>
+        <v>16385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006105849455522418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002762759990905835</v>
+        <v>0.002779166031471594</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01215562952314014</v>
+        <v>0.01204456790738436</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>68587</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53581</v>
+        <v>54123</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85083</v>
+        <v>86258</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1013816212065218</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07920035838617129</v>
+        <v>0.0800018890588097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1257647736975373</v>
+        <v>0.1275014274322974</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -1696,19 +1696,19 @@
         <v>52864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41513</v>
+        <v>40994</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68526</v>
+        <v>68017</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07730488062003149</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06070499518226092</v>
+        <v>0.0599470830250518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1002081280239978</v>
+        <v>0.09946288137482377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>122</v>
@@ -1717,19 +1717,19 @@
         <v>121451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100536</v>
+        <v>103184</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>144244</v>
+        <v>146040</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08927849174118772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07390410270647221</v>
+        <v>0.07585023997041999</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1060335601852753</v>
+        <v>0.1073534867090152</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>346658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>318382</v>
+        <v>317212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>372933</v>
+        <v>372034</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5124111291891872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4706158633028542</v>
+        <v>0.4688850241073416</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5512499492334104</v>
+        <v>0.5499214362396194</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>399</v>
@@ -1767,19 +1767,19 @@
         <v>394040</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>368993</v>
+        <v>369057</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>422514</v>
+        <v>420155</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5762156812074225</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5395888604573799</v>
+        <v>0.5396829988347828</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.61785351700292</v>
+        <v>0.6144050172164945</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>730</v>
@@ -1788,19 +1788,19 @@
         <v>740698</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>698970</v>
+        <v>697925</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>779299</v>
+        <v>774946</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5444850202036401</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5138112522269154</v>
+        <v>0.5130431492535666</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5728603355854839</v>
+        <v>0.5696608285154844</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>242152</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>217937</v>
+        <v>216203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>268683</v>
+        <v>269193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3579362305161349</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3221423118350767</v>
+        <v>0.319579441814474</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.397152150165836</v>
+        <v>0.397905959179884</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>223</v>
@@ -1838,19 +1838,19 @@
         <v>219316</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>193093</v>
+        <v>196104</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>242520</v>
+        <v>242530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.320712047817607</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2823656374047211</v>
+        <v>0.2867690079844611</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3546434246603807</v>
+        <v>0.3546581362066711</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>445</v>
@@ -1859,19 +1859,19 @@
         <v>461468</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>424530</v>
+        <v>428767</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>499060</v>
+        <v>500082</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.339224017339974</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3120707286246172</v>
+        <v>0.315185261773204</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3668579943701279</v>
+        <v>0.3676086196632899</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>15546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8773</v>
+        <v>9575</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>24051</v>
+        <v>25605</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02297975242831378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01296754755660821</v>
+        <v>0.01415368664216358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03555069270731081</v>
+        <v>0.03784794991145474</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1909,19 +1909,19 @@
         <v>12894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7298</v>
+        <v>7161</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>20957</v>
+        <v>21098</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01885567513970595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01067274394061874</v>
+        <v>0.01047222144781076</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03064581834440041</v>
+        <v>0.0308519750430797</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>30</v>
@@ -1930,19 +1930,19 @@
         <v>28441</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19252</v>
+        <v>19422</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40599</v>
+        <v>40357</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02090662125967578</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01415183302984858</v>
+        <v>0.01427736505339519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02984434728521328</v>
+        <v>0.02966618666426095</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>15318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9336</v>
+        <v>9493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23916</v>
+        <v>24140</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01625756842317355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009908971422488999</v>
+        <v>0.01007513826455257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0253829540298028</v>
+        <v>0.02562057038759484</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2055,19 +2055,19 @@
         <v>20805</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12707</v>
+        <v>13364</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32300</v>
+        <v>33827</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02008937908315156</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01226924169487391</v>
+        <v>0.01290452023507166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03118794176559377</v>
+        <v>0.03266276250713009</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2076,19 +2076,19 @@
         <v>36124</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26467</v>
+        <v>25977</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50304</v>
+        <v>49603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01826396842798679</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01338141303266856</v>
+        <v>0.01313391336692998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02543363736571748</v>
+        <v>0.02507893284338763</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>70476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>55973</v>
+        <v>56210</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89190</v>
+        <v>87298</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07479717487228929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05940546951455135</v>
+        <v>0.05965664278107456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09465891427468411</v>
+        <v>0.09265147590913121</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>62</v>
@@ -2126,19 +2126,19 @@
         <v>67216</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53280</v>
+        <v>52830</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>85827</v>
+        <v>86150</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06490292295263579</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05144598903077151</v>
+        <v>0.051011781568101</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08287314986986849</v>
+        <v>0.08318545743211743</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>137</v>
@@ -2147,19 +2147,19 @@
         <v>137692</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>115156</v>
+        <v>117394</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>161299</v>
+        <v>160972</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06961637945706643</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05822254052898659</v>
+        <v>0.05935405736366844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08155182450531</v>
+        <v>0.08138691846265987</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>515132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>486788</v>
+        <v>484518</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>544016</v>
+        <v>544423</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5467203141448096</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5166383548722989</v>
+        <v>0.5142290273454548</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5773753074837877</v>
+        <v>0.5778070831740438</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>563</v>
@@ -2197,19 +2197,19 @@
         <v>585312</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>551935</v>
+        <v>554176</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>618404</v>
+        <v>614761</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5651680882748197</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5329395413792424</v>
+        <v>0.5351034147381533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5971206189018541</v>
+        <v>0.593603073262449</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1106</v>
@@ -2218,19 +2218,19 @@
         <v>1100445</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1056042</v>
+        <v>1057965</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1143975</v>
+        <v>1147206</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5563798765260725</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.533930081630294</v>
+        <v>0.5349023833636806</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5783886148034395</v>
+        <v>0.5800220111368597</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>305319</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>278742</v>
+        <v>277338</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>331215</v>
+        <v>333200</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3240410420341298</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2958344972447576</v>
+        <v>0.2943444052560839</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3515253750450437</v>
+        <v>0.3536322264556054</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>320</v>
@@ -2268,19 +2268,19 @@
         <v>330501</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>301154</v>
+        <v>301152</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>359529</v>
+        <v>361413</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3191265426650371</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2907892983859505</v>
+        <v>0.2907875721720787</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3471549033156302</v>
+        <v>0.3489740519713773</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>641</v>
@@ -2289,19 +2289,19 @@
         <v>635820</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>596373</v>
+        <v>591216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>675527</v>
+        <v>678564</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3214677281538822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3015237070991657</v>
+        <v>0.2989163564858217</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3415432214599625</v>
+        <v>0.3430789232871436</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>35978</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24517</v>
+        <v>25584</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48666</v>
+        <v>49120</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0381839005255978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02602021622524068</v>
+        <v>0.02715288359186801</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05165073135417079</v>
+        <v>0.05213230667067447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>30</v>
@@ -2339,19 +2339,19 @@
         <v>31808</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21414</v>
+        <v>21816</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45014</v>
+        <v>44424</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03071306702435576</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02067660738730677</v>
+        <v>0.02106521464717518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04346495552270419</v>
+        <v>0.04289513524725991</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -2360,19 +2360,19 @@
         <v>67786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>53394</v>
+        <v>52324</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>86004</v>
+        <v>86321</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03427204743499208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02699551132421927</v>
+        <v>0.02645492374455388</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04348323612677495</v>
+        <v>0.04364360912936852</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>35757</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25954</v>
+        <v>25837</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48999</v>
+        <v>49173</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01092289097585451</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007928260559274963</v>
+        <v>0.007892481713099316</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01496785175032841</v>
+        <v>0.01502106747901031</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>48</v>
@@ -2485,19 +2485,19 @@
         <v>50570</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38010</v>
+        <v>36993</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67033</v>
+        <v>65994</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01498736072802554</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01126499634928448</v>
+        <v>0.01096360499873639</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01986666025747906</v>
+        <v>0.01955845621970876</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>86</v>
@@ -2506,19 +2506,19 @@
         <v>86327</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>69590</v>
+        <v>67197</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>105439</v>
+        <v>105147</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01298586319276554</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01046814223857731</v>
+        <v>0.01010818849910362</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01586076675035768</v>
+        <v>0.01581688811942222</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>281295</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>251716</v>
+        <v>249426</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>314195</v>
+        <v>314326</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08592771229897317</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07689224222849775</v>
+        <v>0.07619266084458491</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0959776868171564</v>
+        <v>0.09601780779925354</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>258</v>
@@ -2556,19 +2556,19 @@
         <v>269127</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>237858</v>
+        <v>240290</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>302684</v>
+        <v>303983</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07976107118715453</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0704938537687332</v>
+        <v>0.07121455611863409</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08970619678099674</v>
+        <v>0.09009105265641466</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>538</v>
@@ -2577,19 +2577,19 @@
         <v>550422</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>504638</v>
+        <v>507004</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>599983</v>
+        <v>593182</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08279775684081089</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07591055025331896</v>
+        <v>0.07626656977569916</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09025296806125818</v>
+        <v>0.08922998868859189</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>1808365</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1749314</v>
+        <v>1752179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1860397</v>
+        <v>1863320</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5524046369061354</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5343663326925263</v>
+        <v>0.5352414566730669</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5682990739195389</v>
+        <v>0.5691918625542235</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1897</v>
@@ -2627,19 +2627,19 @@
         <v>1946167</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1886600</v>
+        <v>1892644</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2008136</v>
+        <v>2001676</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5767839278787068</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5591302188345036</v>
+        <v>0.560921495719267</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5951495008197503</v>
+        <v>0.593235168899222</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3671</v>
@@ -2648,19 +2648,19 @@
         <v>3754531</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3676268</v>
+        <v>3681554</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3832645</v>
+        <v>3841550</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5647786495107415</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5530058483615901</v>
+        <v>0.5538010561968445</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5765290462135931</v>
+        <v>0.5778686105348779</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>1048516</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>995503</v>
+        <v>993095</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1097587</v>
+        <v>1099288</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3202921008548155</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3040981783447234</v>
+        <v>0.3033626970674471</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3352820749023463</v>
+        <v>0.3358017935212885</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1017</v>
@@ -2698,19 +2698,19 @@
         <v>1033227</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>977839</v>
+        <v>984732</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1087132</v>
+        <v>1088266</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3062165743040188</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.28980141760012</v>
+        <v>0.2918441592744594</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3221925120877141</v>
+        <v>0.322528361085173</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2038</v>
@@ -2719,19 +2719,19 @@
         <v>2081742</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2005841</v>
+        <v>2004284</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2156485</v>
+        <v>2154179</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3131478921429222</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3017304443961648</v>
+        <v>0.301496207013382</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3243911853438235</v>
+        <v>0.3240442359224415</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>99691</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>81532</v>
+        <v>80037</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>120132</v>
+        <v>121942</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0304526589642214</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02490570181722747</v>
+        <v>0.02444899381701849</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03669686811061507</v>
+        <v>0.03724982266720478</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -2769,19 +2769,19 @@
         <v>75079</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>58034</v>
+        <v>58819</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>93088</v>
+        <v>92842</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02225106590209433</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01719935385507776</v>
+        <v>0.01743208530130228</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.0275882812850316</v>
+        <v>0.02751537168475014</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>170</v>
@@ -2790,19 +2790,19 @@
         <v>174769</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>148265</v>
+        <v>149210</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>203760</v>
+        <v>199935</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02628983831275984</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02230294226287776</v>
+        <v>0.02244507446426827</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03065079918112194</v>
+        <v>0.03007547368848062</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>15055</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8193</v>
+        <v>8756</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25445</v>
+        <v>24644</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02146746157544892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01168253728637723</v>
+        <v>0.01248537940053664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03628333016008585</v>
+        <v>0.03513989976991998</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3155,19 +3155,19 @@
         <v>8341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4042</v>
+        <v>4060</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15921</v>
+        <v>16961</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01199964277073974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005814223779077486</v>
+        <v>0.005840513117581061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02290356500350743</v>
+        <v>0.02439973551601667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -3176,19 +3176,19 @@
         <v>23397</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14512</v>
+        <v>14692</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35707</v>
+        <v>34698</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01675444208764147</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01039246536672167</v>
+        <v>0.01052100912451859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02556995711578198</v>
+        <v>0.0248472349840439</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>81083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>64289</v>
+        <v>66219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99400</v>
+        <v>100247</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1156185762134749</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09167107305839217</v>
+        <v>0.09442344301012306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1417366561502088</v>
+        <v>0.1429449405860492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>72</v>
@@ -3226,19 +3226,19 @@
         <v>78062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61398</v>
+        <v>62619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94452</v>
+        <v>95236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1122972124419872</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08832525119139664</v>
+        <v>0.0900819190858405</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1358749320967916</v>
+        <v>0.1370037080596516</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -3247,19 +3247,19 @@
         <v>159145</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134972</v>
+        <v>136309</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>185439</v>
+        <v>183875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1139652226265502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09665429081710501</v>
+        <v>0.09761176385505815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.132794225402284</v>
+        <v>0.131674300290854</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>364723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>337501</v>
+        <v>338017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>391304</v>
+        <v>393112</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5200683784950897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.481251441709044</v>
+        <v>0.4819873929269377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5579699319692641</v>
+        <v>0.5605483672618407</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>341</v>
@@ -3297,19 +3297,19 @@
         <v>366129</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>339204</v>
+        <v>339324</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>390291</v>
+        <v>392470</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5267000134097418</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4879669800608719</v>
+        <v>0.4881403990562754</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5614588720415485</v>
+        <v>0.5645943290376044</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>686</v>
@@ -3318,19 +3318,19 @@
         <v>730852</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>693314</v>
+        <v>693651</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>768627</v>
+        <v>768127</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5233695638296922</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4964885017629077</v>
+        <v>0.4967297845397956</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5504201591939313</v>
+        <v>0.5500624167540924</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>226351</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>201827</v>
+        <v>202231</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253869</v>
+        <v>254048</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3227598926857685</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2877907853891388</v>
+        <v>0.2883658961999421</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3619980091475429</v>
+        <v>0.3622531134095984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -3368,19 +3368,19 @@
         <v>233348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>210975</v>
+        <v>206409</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>259806</v>
+        <v>259540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3356857603724033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3035007315562374</v>
+        <v>0.2969330100762925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3737483083266286</v>
+        <v>0.3733647693256665</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>442</v>
@@ -3389,19 +3389,19 @@
         <v>459699</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>425195</v>
+        <v>426535</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>495859</v>
+        <v>498603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.329194306731972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3044861196727377</v>
+        <v>0.3054455286359124</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3550892259575928</v>
+        <v>0.3570536721427912</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>14086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8009</v>
+        <v>8107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22660</v>
+        <v>22021</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02008569103021802</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01142076248114358</v>
+        <v>0.01156062374604777</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03231107097964959</v>
+        <v>0.03140090669352266</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -3439,19 +3439,19 @@
         <v>9257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4839</v>
+        <v>4194</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17478</v>
+        <v>16507</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01331737100512793</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.006961246780480035</v>
+        <v>0.006033344981922653</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02514392018650084</v>
+        <v>0.02374672562359936</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -3460,19 +3460,19 @@
         <v>23343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15457</v>
+        <v>15041</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33805</v>
+        <v>33220</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01671646472414415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01106888716773043</v>
+        <v>0.01077110588137898</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02420801478727781</v>
+        <v>0.02378890981274361</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>13494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7192</v>
+        <v>7373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22648</v>
+        <v>22354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01328257845567901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007079736200216171</v>
+        <v>0.007257148009906233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02229342021009188</v>
+        <v>0.02200452437156386</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3585,19 +3585,19 @@
         <v>3274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9701</v>
+        <v>8831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003181259483154406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001026437449355288</v>
+        <v>0.001027757100108381</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009427001203998964</v>
+        <v>0.008581653106308693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -3606,19 +3606,19 @@
         <v>16768</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9627</v>
+        <v>9785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27385</v>
+        <v>27105</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008199382918367243</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004707453210805411</v>
+        <v>0.004784881648889816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01339133288625774</v>
+        <v>0.01325434922501804</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>98836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80565</v>
+        <v>80747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>120472</v>
+        <v>119522</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09728906077564124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07930342079847229</v>
+        <v>0.07948257086134665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1185864898121695</v>
+        <v>0.1176510260952622</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -3656,19 +3656,19 @@
         <v>119447</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100027</v>
+        <v>100982</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140526</v>
+        <v>144027</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.116072456612039</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09720027037393866</v>
+        <v>0.09812858044408032</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.13655494133925</v>
+        <v>0.1399573670861483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>205</v>
@@ -3677,19 +3677,19 @@
         <v>218284</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>191137</v>
+        <v>192312</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248466</v>
+        <v>249005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1067412594588865</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0934665376709906</v>
+        <v>0.09404099176039743</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1215003888360746</v>
+        <v>0.1217640759390301</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>585283</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>550012</v>
+        <v>551861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>615686</v>
+        <v>617653</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5761209021194096</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5414022514914059</v>
+        <v>0.543221661715458</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6060477274851018</v>
+        <v>0.6079839694492591</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>554</v>
@@ -3727,19 +3727,19 @@
         <v>609953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>576045</v>
+        <v>577437</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>642135</v>
+        <v>640182</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5927186371391007</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5597689042940255</v>
+        <v>0.561121004176959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6239908772513429</v>
+        <v>0.6220938087560191</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1090</v>
@@ -3748,19 +3748,19 @@
         <v>1195236</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1151231</v>
+        <v>1148360</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1239104</v>
+        <v>1242137</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5844732304451521</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5629546166005638</v>
+        <v>0.561550593506552</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6059248662882731</v>
+        <v>0.6074079995830493</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>302903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>273291</v>
+        <v>275626</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>336706</v>
+        <v>334335</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2981610420614124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2690131279678418</v>
+        <v>0.2713116495739189</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.331435626487892</v>
+        <v>0.3291013658595521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>247</v>
@@ -3798,19 +3798,19 @@
         <v>274281</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>245950</v>
+        <v>247889</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>302086</v>
+        <v>304100</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2665308451463489</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2390009866321147</v>
+        <v>0.2408843085145538</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2935504857720582</v>
+        <v>0.2955073015409184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>524</v>
@@ -3819,19 +3819,19 @@
         <v>577183</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>534154</v>
+        <v>537954</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>618532</v>
+        <v>617076</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.282244063670742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2612024031156835</v>
+        <v>0.2630607373729268</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3024635833427575</v>
+        <v>0.3017517138430558</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>15387</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8916</v>
+        <v>9047</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24737</v>
+        <v>25839</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01514641658785768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008776156591263398</v>
+        <v>0.008905235941624181</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02434962596109076</v>
+        <v>0.02543489541057146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -3869,19 +3869,19 @@
         <v>22122</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14156</v>
+        <v>13277</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33539</v>
+        <v>32847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02149680161935695</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01375620160098929</v>
+        <v>0.01290191420435359</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0325909302555358</v>
+        <v>0.03191879725861084</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -3890,19 +3890,19 @@
         <v>37509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26764</v>
+        <v>27561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>51450</v>
+        <v>51476</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01834206350685214</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01308755091636219</v>
+        <v>0.01347721401514451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02515909123285251</v>
+        <v>0.02517194154397315</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>12314</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6918</v>
+        <v>6416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20854</v>
+        <v>20713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01629663290577683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009154600756418087</v>
+        <v>0.008490283739266396</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02759774181081211</v>
+        <v>0.02741069320159869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -4015,19 +4015,19 @@
         <v>14457</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7115</v>
+        <v>7815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23813</v>
+        <v>24407</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01862544999848167</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009166477480368125</v>
+        <v>0.01006814068306139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03068018200802743</v>
+        <v>0.03144543074107314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -4036,19 +4036,19 @@
         <v>26771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17285</v>
+        <v>17608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39740</v>
+        <v>39768</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0174766491174464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01128424311418979</v>
+        <v>0.0114949291110917</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02594274588773003</v>
+        <v>0.02596103980650806</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>57442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>44134</v>
+        <v>42708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74066</v>
+        <v>74489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07601675978679441</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05840629040458244</v>
+        <v>0.05651892351807061</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09801744490502916</v>
+        <v>0.0985764443678092</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -4086,19 +4086,19 @@
         <v>64610</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51528</v>
+        <v>50512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81293</v>
+        <v>82146</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0832416335618001</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0663867735048399</v>
+        <v>0.06507773583360443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1047354225920637</v>
+        <v>0.1058344235550739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -4107,19 +4107,19 @@
         <v>122052</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>102063</v>
+        <v>102429</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>147403</v>
+        <v>145135</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07967761757098005</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06662838309172624</v>
+        <v>0.06686779629707477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09622707047481296</v>
+        <v>0.09474671151905301</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>428921</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>401759</v>
+        <v>398481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>457681</v>
+        <v>457396</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5676228903858802</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5316771017834833</v>
+        <v>0.5273395830893255</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6056828866427786</v>
+        <v>0.6053063952316594</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>436</v>
@@ -4157,19 +4157,19 @@
         <v>480696</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>451184</v>
+        <v>454405</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>509251</v>
+        <v>508922</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6193128874597671</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5812914654877486</v>
+        <v>0.585441068408973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6561023901574697</v>
+        <v>0.6556790699781653</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>823</v>
@@ -4178,19 +4178,19 @@
         <v>909617</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>869488</v>
+        <v>870533</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>950755</v>
+        <v>948008</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5938143137996855</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5676174652698662</v>
+        <v>0.5682995702704791</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6206703103635247</v>
+        <v>0.6188767403954267</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>231881</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>204329</v>
+        <v>205266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257784</v>
+        <v>256968</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3068659147095455</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2704036255906585</v>
+        <v>0.271643236335152</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3411450915417305</v>
+        <v>0.3400647225816154</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>183</v>
@@ -4228,19 +4228,19 @@
         <v>200811</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>175596</v>
+        <v>175690</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>227447</v>
+        <v>224941</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2587181680032377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2262320751850558</v>
+        <v>0.2263529896670009</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2930354797970508</v>
+        <v>0.2898069325834598</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>397</v>
@@ -4249,19 +4249,19 @@
         <v>432692</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>395037</v>
+        <v>398661</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>469488</v>
+        <v>470718</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.282469356539829</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2578874916895501</v>
+        <v>0.2602531284668382</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.306490544230916</v>
+        <v>0.3072931544919338</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>25086</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>15884</v>
+        <v>15734</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37073</v>
+        <v>36269</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03319780221200305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02102003488334808</v>
+        <v>0.02082155482958291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04906104597592428</v>
+        <v>0.04799710804017423</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -4299,19 +4299,19 @@
         <v>15603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8666</v>
+        <v>9148</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25824</v>
+        <v>25512</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02010186097671346</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01116483673332926</v>
+        <v>0.01178609857584955</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03327083389992687</v>
+        <v>0.03286888933937916</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -4320,19 +4320,19 @@
         <v>40688</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>29330</v>
+        <v>29118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>56318</v>
+        <v>56544</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02656206297205905</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01914735423630842</v>
+        <v>0.01900864744972864</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03676562271505184</v>
+        <v>0.03691304160638963</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>13888</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7546</v>
+        <v>7711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23939</v>
+        <v>23366</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01465347440799227</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007961624333943557</v>
+        <v>0.008135886189830171</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0252594152332827</v>
+        <v>0.02465451955899822</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -4445,19 +4445,19 @@
         <v>13061</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7229</v>
+        <v>7053</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22710</v>
+        <v>22475</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01245140257149278</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006891987779530775</v>
+        <v>0.006723849965045223</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02164985093440649</v>
+        <v>0.02142575713758602</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -4466,19 +4466,19 @@
         <v>26949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17986</v>
+        <v>18025</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40047</v>
+        <v>39767</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01349662766615399</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009008017007491152</v>
+        <v>0.009027566309959083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02005669106187323</v>
+        <v>0.01991651696375345</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>87262</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>70430</v>
+        <v>69413</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>106277</v>
+        <v>105044</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09207424495160822</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07431392031820397</v>
+        <v>0.07324098837055815</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1121368955429963</v>
+        <v>0.1108362871546626</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -4516,19 +4516,19 @@
         <v>126172</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106243</v>
+        <v>108178</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>148857</v>
+        <v>151052</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1202841067884447</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1012852555523976</v>
+        <v>0.1031298664259485</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1419100515868278</v>
+        <v>0.1440029581125442</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>200</v>
@@ -4537,19 +4537,19 @@
         <v>213434</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>186006</v>
+        <v>185515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>244610</v>
+        <v>243205</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1068941460160211</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0931572504779541</v>
+        <v>0.09291119839902903</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1225076585412146</v>
+        <v>0.1218042518490612</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>480627</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>453562</v>
+        <v>448108</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>515651</v>
+        <v>510538</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5071301822867935</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4785725236359561</v>
+        <v>0.4728181398159785</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5440855185853951</v>
+        <v>0.5386908540926825</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>513</v>
@@ -4587,19 +4587,19 @@
         <v>534388</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>501993</v>
+        <v>502762</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>568978</v>
+        <v>568478</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5094499518167821</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.478567029337428</v>
+        <v>0.4793006409668379</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5424266239048403</v>
+        <v>0.541949176822441</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>966</v>
@@ -4608,19 +4608,19 @@
         <v>1015015</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>969993</v>
+        <v>970388</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1059308</v>
+        <v>1064059</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.508348860886693</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4858004309421574</v>
+        <v>0.4859983602988273</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5305318857617133</v>
+        <v>0.5329112675082287</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>322497</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>292267</v>
+        <v>294209</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>355869</v>
+        <v>353192</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3402805463158985</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3083837140807794</v>
+        <v>0.3104320943571737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.375492244588134</v>
+        <v>0.3726680345535255</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>332</v>
@@ -4658,19 +4658,19 @@
         <v>346540</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>314815</v>
+        <v>312793</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>378261</v>
+        <v>375346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.330368206402935</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3001239334377255</v>
+        <v>0.2981960757486719</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.360608795772301</v>
+        <v>0.3578305463837504</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>651</v>
@@ -4679,19 +4679,19 @@
         <v>669037</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>627107</v>
+        <v>626248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>711014</v>
+        <v>712251</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3350731511972479</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3140735202067403</v>
+        <v>0.3136430370269577</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3560962677771263</v>
+        <v>0.3567157279591968</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>43465</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>31614</v>
+        <v>32124</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>58475</v>
+        <v>57085</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04586155203770748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0333568560192778</v>
+        <v>0.03389573936560635</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06169950623077461</v>
+        <v>0.06023312956969886</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -4729,19 +4729,19 @@
         <v>28790</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19798</v>
+        <v>19075</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40883</v>
+        <v>41305</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02744633242034541</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01887421274690059</v>
+        <v>0.01818455602999939</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03897501976097848</v>
+        <v>0.03937791600170856</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -4750,19 +4750,19 @@
         <v>72255</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>57806</v>
+        <v>56302</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>91401</v>
+        <v>91296</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03618721423388413</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02895087205702607</v>
+        <v>0.02819787225082518</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04577607345625275</v>
+        <v>0.04572354389229099</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>54751</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41438</v>
+        <v>40302</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>71715</v>
+        <v>71823</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01600633882974891</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0121142930454376</v>
+        <v>0.01178219545147084</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02096583687451259</v>
+        <v>0.02099735639037472</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>35</v>
@@ -4875,19 +4875,19 @@
         <v>39133</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27294</v>
+        <v>27504</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>54303</v>
+        <v>54311</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01102534207912398</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007689766960828128</v>
+        <v>0.007749038460790977</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01529947845291577</v>
+        <v>0.01530173176203573</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>87</v>
@@ -4896,19 +4896,19 @@
         <v>93884</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>74414</v>
+        <v>75487</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>113487</v>
+        <v>115773</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01346983370763617</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01067637527663253</v>
+        <v>0.01083041215802435</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01628245337779662</v>
+        <v>0.01661031541651107</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>324623</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>291028</v>
+        <v>292873</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>360755</v>
+        <v>361344</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09490289084696295</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08508144845056906</v>
+        <v>0.08562076123363227</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1054659658837755</v>
+        <v>0.1056379140580859</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>359</v>
@@ -4946,19 +4946,19 @@
         <v>388292</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>350207</v>
+        <v>349757</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>428329</v>
+        <v>430812</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1093982562774232</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09866822650814057</v>
+        <v>0.09854152334444745</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1206784026519761</v>
+        <v>0.1213781557132412</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>663</v>
@@ -4967,19 +4967,19 @@
         <v>712915</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>662305</v>
+        <v>660910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>763551</v>
+        <v>771490</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1022844593365721</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0950231974390084</v>
+        <v>0.09482309456721395</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1095493718016855</v>
+        <v>0.1106884379450594</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>1859555</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1793742</v>
+        <v>1804228</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1917761</v>
+        <v>1924525</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5436363240817447</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5243961218263643</v>
+        <v>0.5274617580133816</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5606526513262939</v>
+        <v>0.5626303362074765</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1844</v>
@@ -5017,19 +5017,19 @@
         <v>1991165</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1928637</v>
+        <v>1929906</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2057425</v>
+        <v>2048947</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5609958784490355</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5433791773496959</v>
+        <v>0.5437366000654281</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5796642062690412</v>
+        <v>0.577275553227551</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3565</v>
@@ -5038,19 +5038,19 @@
         <v>3850720</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3768652</v>
+        <v>3768391</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3939145</v>
+        <v>3944848</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5524764419888089</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5407019383590066</v>
+        <v>0.540664383145234</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5651630461035078</v>
+        <v>0.5659813977346055</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>1083633</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1025462</v>
+        <v>1025171</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1138808</v>
+        <v>1138052</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3167973977985722</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2997912689323693</v>
+        <v>0.2997063276253996</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3329277393126755</v>
+        <v>0.332706666637361</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>981</v>
@@ -5088,19 +5088,19 @@
         <v>1054979</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>997090</v>
+        <v>996844</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1107563</v>
+        <v>1105207</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2972324200960281</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2809225986375497</v>
+        <v>0.280853400626889</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3120476200317505</v>
+        <v>0.3113837586648919</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2014</v>
@@ -5109,19 +5109,19 @@
         <v>2138612</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2054739</v>
+        <v>2056544</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2216467</v>
+        <v>2212504</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3068341979329433</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2948006283685033</v>
+        <v>0.2950596233838028</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3180044136721905</v>
+        <v>0.3174357578229578</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>98024</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>79717</v>
+        <v>80957</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>120543</v>
+        <v>119524</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02865704844297121</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02330521658048146</v>
+        <v>0.02366746785340864</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03524037711525801</v>
+        <v>0.03494255871502346</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -5159,19 +5159,19 @@
         <v>75772</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>59548</v>
+        <v>60506</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95253</v>
+        <v>96745</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02134810309838927</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01677728646318528</v>
+        <v>0.01704701868238886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02683692474644493</v>
+        <v>0.02725725389938005</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>166</v>
@@ -5180,19 +5180,19 @@
         <v>173796</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>149847</v>
+        <v>149643</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>204508</v>
+        <v>202470</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02493506703403972</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02149903861137123</v>
+        <v>0.02146974069489986</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0293414583158343</v>
+        <v>0.02904911053758148</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>11952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6554</v>
+        <v>6134</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19823</v>
+        <v>20370</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0177989088471679</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009760189895927302</v>
+        <v>0.009135427172233833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02952090216713566</v>
+        <v>0.03033550350507499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5545,19 +5545,19 @@
         <v>9944</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5070</v>
+        <v>4909</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18212</v>
+        <v>18584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01479897093647254</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007544542668679931</v>
+        <v>0.007305185458590209</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02710279626968838</v>
+        <v>0.02765708469055929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -5566,19 +5566,19 @@
         <v>21896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14333</v>
+        <v>14118</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32673</v>
+        <v>33019</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01629840171445551</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01066927477587581</v>
+        <v>0.01050855839676401</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0243202230338998</v>
+        <v>0.02457821125245429</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>85352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67774</v>
+        <v>68339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102797</v>
+        <v>102735</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1271105590886624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1009328834621847</v>
+        <v>0.1017735401214887</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1530908222412083</v>
+        <v>0.1529987113810974</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -5616,19 +5616,19 @@
         <v>102795</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>84555</v>
+        <v>84629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>120054</v>
+        <v>122584</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1529777894100754</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1258342533831154</v>
+        <v>0.1259432901962341</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1786629058036054</v>
+        <v>0.1824279521869189</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>184</v>
@@ -5637,19 +5637,19 @@
         <v>188147</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160656</v>
+        <v>164230</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>213254</v>
+        <v>218781</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1400488147313593</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1195859613227848</v>
+        <v>0.1222460264453312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1587380682032443</v>
+        <v>0.1628516499627311</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>378852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>353443</v>
+        <v>352832</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>405208</v>
+        <v>403544</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5642070327098984</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.526366358495692</v>
+        <v>0.525455873134076</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6034572053478175</v>
+        <v>0.6009792152122394</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>400</v>
@@ -5687,19 +5687,19 @@
         <v>402996</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>378977</v>
+        <v>378442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>429301</v>
+        <v>427006</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5997337399310982</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5639875835043326</v>
+        <v>0.5631923009575016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6388800601596254</v>
+        <v>0.6354647126679451</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>769</v>
@@ -5708,19 +5708,19 @@
         <v>781849</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>746094</v>
+        <v>742269</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>816896</v>
+        <v>818932</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5819767596756271</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5553625612594719</v>
+        <v>0.5525156353510913</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6080648569387886</v>
+        <v>0.6095804686130484</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>173138</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148170</v>
+        <v>151400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>195830</v>
+        <v>197477</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2578468750329731</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2206634108953276</v>
+        <v>0.2254727303727506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2916411869709561</v>
+        <v>0.2940934936137931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -5758,19 +5758,19 @@
         <v>139487</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118430</v>
+        <v>120384</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161223</v>
+        <v>161638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2075820379611481</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1762464203644382</v>
+        <v>0.1791544172954401</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2399290757128308</v>
+        <v>0.2405473088524185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>304</v>
@@ -5779,19 +5779,19 @@
         <v>312625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286274</v>
+        <v>283410</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>348195</v>
+        <v>344327</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2327054391779165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2130907387384207</v>
+        <v>0.2109592731245629</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2591821446284148</v>
+        <v>0.2563029849353283</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>22183</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13787</v>
+        <v>13406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32575</v>
+        <v>32334</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03303662432129818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02053296184951927</v>
+        <v>0.01996458224954548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04851193468784971</v>
+        <v>0.04815391700435304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -5829,19 +5829,19 @@
         <v>16737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9716</v>
+        <v>10328</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27291</v>
+        <v>27541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02490746176120569</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01445859236029898</v>
+        <v>0.01537059215209914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0406144662326143</v>
+        <v>0.04098639476490853</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -5850,19 +5850,19 @@
         <v>38920</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28070</v>
+        <v>26742</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>53634</v>
+        <v>52108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0289705847006415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02089389297626558</v>
+        <v>0.01990589850932127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03992271013759866</v>
+        <v>0.03878680406363443</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>10544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5524</v>
+        <v>5064</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19377</v>
+        <v>18243</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01032441860833047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005408502596029693</v>
+        <v>0.004958809374913453</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01897354680235839</v>
+        <v>0.01786234054845598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -5975,19 +5975,19 @@
         <v>14774</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8089</v>
+        <v>6993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26641</v>
+        <v>24855</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01419435356016867</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007771227117402896</v>
+        <v>0.006718817351873544</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02559555848150327</v>
+        <v>0.02387928518650952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -5996,19 +5996,19 @@
         <v>25318</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16526</v>
+        <v>15836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38645</v>
+        <v>36850</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01227773882374374</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008013907799652161</v>
+        <v>0.007679522856780095</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01874049372616999</v>
+        <v>0.01786963494224094</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>157171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134923</v>
+        <v>134744</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>180616</v>
+        <v>181115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1538950967273204</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1321101808742025</v>
+        <v>0.1319352536113428</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1768510292477984</v>
+        <v>0.1773397794832324</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>156</v>
@@ -6046,19 +6046,19 @@
         <v>169949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>147056</v>
+        <v>147004</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>196730</v>
+        <v>195108</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1632793718311579</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1412846512681352</v>
+        <v>0.1412350247680043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1890091260239967</v>
+        <v>0.1874509631010856</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>309</v>
@@ -6067,19 +6067,19 @@
         <v>327120</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>296368</v>
+        <v>293722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>361935</v>
+        <v>362215</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1586317381684429</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.143718875187328</v>
+        <v>0.1424359638512451</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1755146386820081</v>
+        <v>0.1756502601222202</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>592118</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>560624</v>
+        <v>559450</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>625027</v>
+        <v>623965</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5797759669746021</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5489383173780116</v>
+        <v>0.5477883083626628</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6119986240899179</v>
+        <v>0.6109588496332844</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>592</v>
@@ -6117,19 +6117,19 @@
         <v>625207</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>591927</v>
+        <v>592238</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>654696</v>
+        <v>655528</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6006710337289735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5686973750917412</v>
+        <v>0.5689959452721798</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6290028515437862</v>
+        <v>0.6298022944072731</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1141</v>
@@ -6138,19 +6138,19 @@
         <v>1217325</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1176013</v>
+        <v>1166819</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1264058</v>
+        <v>1261668</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5903225929002747</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5702889645277417</v>
+        <v>0.56583010948673</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6129846604727198</v>
+        <v>0.6118257146086882</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>232622</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>205372</v>
+        <v>206593</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>264300</v>
+        <v>264206</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2277731511707749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2010911211221658</v>
+        <v>0.2022864895600524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2587906422385075</v>
+        <v>0.2586986949184612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -6188,19 +6188,19 @@
         <v>200621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>174750</v>
+        <v>174760</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>226730</v>
+        <v>228226</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1927479397920134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1678916331606798</v>
+        <v>0.1679018439518216</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2178326642875782</v>
+        <v>0.2192690964162018</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>401</v>
@@ -6209,19 +6209,19 @@
         <v>433243</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>394408</v>
+        <v>396773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>470862</v>
+        <v>474506</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2100944422811692</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1912618442089914</v>
+        <v>0.1924088264259127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2283368962420784</v>
+        <v>0.2301038929330604</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>28832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18117</v>
+        <v>19300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40973</v>
+        <v>41598</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02823136651897208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01773982408414897</v>
+        <v>0.01889762523135192</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04011902127505561</v>
+        <v>0.04073129193428698</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>26</v>
@@ -6259,19 +6259,19 @@
         <v>30296</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19617</v>
+        <v>20459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44376</v>
+        <v>46200</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02910730108768653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01884673418214786</v>
+        <v>0.01965622651550892</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04263409096941963</v>
+        <v>0.04438716194408165</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>51</v>
@@ -6280,19 +6280,19 @@
         <v>59129</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45351</v>
+        <v>44203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77212</v>
+        <v>75635</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02867348782636939</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02199229308146937</v>
+        <v>0.02143543965599652</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03744257269905447</v>
+        <v>0.03667791600555208</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>4626</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10323</v>
+        <v>10135</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006097857273567492</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002302456923730954</v>
+        <v>0.002316145741903816</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01360848991539112</v>
+        <v>0.01336043170785726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -6405,19 +6405,19 @@
         <v>8240</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3461</v>
+        <v>3208</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16342</v>
+        <v>15803</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01051112072608167</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004414524813093116</v>
+        <v>0.004092514392459715</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02084716411761286</v>
+        <v>0.02015976953678338</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -6426,19 +6426,19 @@
         <v>12865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6590</v>
+        <v>6852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21791</v>
+        <v>20565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008340725898158121</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004272313750478947</v>
+        <v>0.004441993628434763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01412714832264797</v>
+        <v>0.01333232511005323</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>53502</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40044</v>
+        <v>40899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>70640</v>
+        <v>70841</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07053043527150367</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05278885989511094</v>
+        <v>0.05391595911379733</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09312296648110928</v>
+        <v>0.09338766620815653</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -6476,19 +6476,19 @@
         <v>67556</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53272</v>
+        <v>52399</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86652</v>
+        <v>84489</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08618014146088201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06795822673462176</v>
+        <v>0.06684438924816334</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1105407492459303</v>
+        <v>0.107780257831513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>112</v>
@@ -6497,19 +6497,19 @@
         <v>121058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99995</v>
+        <v>101068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>143759</v>
+        <v>142493</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07848378665736357</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06482827802956474</v>
+        <v>0.06552365316915182</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09320078506324361</v>
+        <v>0.09238019140214514</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>397341</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>370046</v>
+        <v>369014</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>426048</v>
+        <v>425110</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.523805680172977</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4878225242058178</v>
+        <v>0.4864628813678275</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5616491805562949</v>
+        <v>0.5604121885345195</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>394</v>
@@ -6547,19 +6547,19 @@
         <v>416841</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>389107</v>
+        <v>385324</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>444553</v>
+        <v>444144</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5317553424056752</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.496376066342624</v>
+        <v>0.4915500224920001</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5671074070967632</v>
+        <v>0.5665849469821197</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>757</v>
@@ -6568,19 +6568,19 @@
         <v>814182</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>775358</v>
+        <v>770930</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>855576</v>
+        <v>850884</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5278457852312087</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5026758776372533</v>
+        <v>0.4998052816124291</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5546825441074047</v>
+        <v>0.5516407859789135</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>258889</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>230247</v>
+        <v>231195</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>285112</v>
+        <v>286615</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3412871402523182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3035296442944823</v>
+        <v>0.3047792485284787</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3758564331150394</v>
+        <v>0.3778383465376897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>224</v>
@@ -6618,19 +6618,19 @@
         <v>237947</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>212097</v>
+        <v>213858</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>267057</v>
+        <v>267003</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3035440973515949</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2705673630792946</v>
+        <v>0.2728144286801291</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3406789073597505</v>
+        <v>0.3406097384470599</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>461</v>
@@ -6639,19 +6639,19 @@
         <v>496836</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>457278</v>
+        <v>461890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>531627</v>
+        <v>535153</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3221057141649214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2964599938587881</v>
+        <v>0.2994501232440268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3446615772994714</v>
+        <v>0.3469473297352337</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>44208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30865</v>
+        <v>32175</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57291</v>
+        <v>60504</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05827888702963362</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04068878915018749</v>
+        <v>0.04241582707116469</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07552589978182155</v>
+        <v>0.07976104505950588</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>48</v>
@@ -6689,19 +6689,19 @@
         <v>53312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40486</v>
+        <v>39726</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69094</v>
+        <v>69288</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06800929805576619</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05164749704752487</v>
+        <v>0.05067714002403938</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08814179520986352</v>
+        <v>0.08838958230292146</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>88</v>
@@ -6710,19 +6710,19 @@
         <v>97521</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79983</v>
+        <v>80453</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>121602</v>
+        <v>118215</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06322398804834815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05185436611659892</v>
+        <v>0.05215914819067649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07883638046668864</v>
+        <v>0.07664059042363799</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>17593</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10290</v>
+        <v>10661</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27512</v>
+        <v>27959</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01878284403128605</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01098641589444167</v>
+        <v>0.01138272870179676</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02937329681967533</v>
+        <v>0.0298509641690907</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -6835,19 +6835,19 @@
         <v>14337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8269</v>
+        <v>7452</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23401</v>
+        <v>22884</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01376273154144388</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007937672179584016</v>
+        <v>0.007153580745509217</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02246323700188177</v>
+        <v>0.02196664074823058</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -6856,19 +6856,19 @@
         <v>31930</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21731</v>
+        <v>21834</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45017</v>
+        <v>44248</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0161394247993763</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.010984367738581</v>
+        <v>0.01103619954792617</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0227544668345213</v>
+        <v>0.02236601448851006</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>105290</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87187</v>
+        <v>87151</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125489</v>
+        <v>126110</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1124130926224889</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.093085568819035</v>
+        <v>0.09304692114960079</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1339792049630849</v>
+        <v>0.1346415213833831</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>110</v>
@@ -6906,19 +6906,19 @@
         <v>126163</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106769</v>
+        <v>105857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>152534</v>
+        <v>149662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1211066642779846</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1024903381533409</v>
+        <v>0.1016148236834006</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1464214062709757</v>
+        <v>0.1436639987999896</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>215</v>
@@ -6927,19 +6927,19 @@
         <v>231452</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>205457</v>
+        <v>202113</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>263201</v>
+        <v>259832</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1169908295864758</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1038509398818553</v>
+        <v>0.1021608696883887</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1330384461317415</v>
+        <v>0.1313355014895563</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>543975</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>515015</v>
+        <v>513198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>573573</v>
+        <v>572366</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5807773503860958</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5498579190180778</v>
+        <v>0.5479178620730645</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6123771027795908</v>
+        <v>0.611089094330288</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>578</v>
@@ -6977,19 +6977,19 @@
         <v>629887</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>595481</v>
+        <v>594825</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>661179</v>
+        <v>661109</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6046450389579429</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5716178937674121</v>
+        <v>0.5709883388959104</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6346826625781299</v>
+        <v>0.6346158070794667</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1120</v>
@@ -6998,19 +6998,19 @@
         <v>1173863</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1132529</v>
+        <v>1125109</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1216727</v>
+        <v>1213868</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5933452574040592</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5724524144189718</v>
+        <v>0.5687017924743577</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6150112203220905</v>
+        <v>0.6135665139796319</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>250626</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>224406</v>
+        <v>225278</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>278152</v>
+        <v>278244</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2675818425144813</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2395879129180696</v>
+        <v>0.2405188848546286</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2969698002757436</v>
+        <v>0.2970678457876354</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>243</v>
@@ -7048,19 +7048,19 @@
         <v>256732</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>227200</v>
+        <v>228438</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>285459</v>
+        <v>285680</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2464439309393167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2180955660853692</v>
+        <v>0.2192834590806932</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2740190645617064</v>
+        <v>0.2742315780335667</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>491</v>
@@ -7069,19 +7069,19 @@
         <v>507358</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>472382</v>
+        <v>471243</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>548349</v>
+        <v>549816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2564513425320089</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2387717596775447</v>
+        <v>0.2381964933374008</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2771704594992798</v>
+        <v>0.2779120618860485</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>19149</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11599</v>
+        <v>11839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29597</v>
+        <v>29558</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02044487044564794</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01238420503470092</v>
+        <v>0.01263998118280539</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03159979506080515</v>
+        <v>0.03155793810053276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -7119,19 +7119,19 @@
         <v>14628</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7857</v>
+        <v>7864</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23555</v>
+        <v>24310</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01404163428331196</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007542426541703188</v>
+        <v>0.007548705847493191</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02261104085040315</v>
+        <v>0.02333603383362678</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -7140,19 +7140,19 @@
         <v>33777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23385</v>
+        <v>24168</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46581</v>
+        <v>47336</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01707314567807983</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01182049786557308</v>
+        <v>0.01221616687608275</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02354476119509931</v>
+        <v>0.02392642146110177</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>44714</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34339</v>
+        <v>33449</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>60591</v>
+        <v>59603</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01319790438547768</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01013563627899089</v>
+        <v>0.009872887499108697</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01788427360659359</v>
+        <v>0.0175926029967873</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -7265,19 +7265,19 @@
         <v>47295</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>34479</v>
+        <v>34268</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>64815</v>
+        <v>64141</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01336612838152413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009744166838766997</v>
+        <v>0.009684487166800473</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0183172650866367</v>
+        <v>0.01812694020054081</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>86</v>
@@ -7286,19 +7286,19 @@
         <v>92009</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>73834</v>
+        <v>73365</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>112854</v>
+        <v>112040</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01328384382436792</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01065983591151512</v>
+        <v>0.01059209850656696</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01629329396297783</v>
+        <v>0.01617573935985153</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>401315</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>363744</v>
+        <v>364649</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>438845</v>
+        <v>438131</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1184531089874361</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1073635062803457</v>
+        <v>0.1076306917089866</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1295305774205762</v>
+        <v>0.129319991497832</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>429</v>
@@ -7336,19 +7336,19 @@
         <v>466462</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>424570</v>
+        <v>425920</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>508399</v>
+        <v>515034</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1318268102370568</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1199875916908211</v>
+        <v>0.120369126245093</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1436786264289052</v>
+        <v>0.1455536159536006</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>820</v>
@@ -7357,19 +7357,19 @@
         <v>867777</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>808559</v>
+        <v>811938</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>920599</v>
+        <v>927808</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1252852400049438</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1167356717172079</v>
+        <v>0.1172233840413821</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1329113883945838</v>
+        <v>0.1339521977868074</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>1912287</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1851032</v>
+        <v>1853121</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1969424</v>
+        <v>1968108</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5644353722316697</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5463552555937139</v>
+        <v>0.5469717268256716</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5813002228817474</v>
+        <v>0.5809117036497274</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1964</v>
@@ -7407,19 +7407,19 @@
         <v>2074931</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2016078</v>
+        <v>2012308</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2134165</v>
+        <v>2138891</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5863956795348713</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5697631209959093</v>
+        <v>0.5686978568115421</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6031356460581763</v>
+        <v>0.6044713684389775</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3787</v>
@@ -7428,19 +7428,19 @@
         <v>3987218</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3901311</v>
+        <v>3906787</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4069469</v>
+        <v>4077226</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5756540837820312</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5632513242647963</v>
+        <v>0.564041811657884</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5875291097118348</v>
+        <v>0.5886490206485787</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>915275</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>860817</v>
+        <v>866510</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>967902</v>
+        <v>971187</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.270154874157675</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2540809148797228</v>
+        <v>0.2557611321834798</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2856884801006481</v>
+        <v>0.2866580080111948</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>796</v>
@@ -7478,19 +7478,19 @@
         <v>834787</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>786628</v>
+        <v>782482</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>889920</v>
+        <v>889097</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2359188796283651</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2223086215231735</v>
+        <v>0.2211370249985865</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2514999044364051</v>
+        <v>0.2512674412204676</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1657</v>
@@ -7499,19 +7499,19 @@
         <v>1750062</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1675150</v>
+        <v>1670701</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1829375</v>
+        <v>1817742</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2526649664819255</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2418496043587856</v>
+        <v>0.2412072452565968</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2641158480406253</v>
+        <v>0.2624362212717475</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>114373</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>94885</v>
+        <v>93640</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>139268</v>
+        <v>138219</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03375874023774152</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02800657430382529</v>
+        <v>0.0276390795244234</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04110677830537281</v>
+        <v>0.04079703873698363</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>102</v>
@@ -7549,19 +7549,19 @@
         <v>114973</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>95061</v>
+        <v>93555</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>140079</v>
+        <v>136208</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03249250221818271</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02686513047983942</v>
+        <v>0.02643958583121065</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03958774446806958</v>
+        <v>0.03849379912312714</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>208</v>
@@ -7570,19 +7570,19 @@
         <v>229346</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>201537</v>
+        <v>197123</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>263939</v>
+        <v>261306</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03311186590673158</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0290968705544343</v>
+        <v>0.02845954392492861</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03810620086044326</v>
+        <v>0.03772607314179108</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>13169</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7012</v>
+        <v>7234</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23808</v>
+        <v>23076</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.01906647978732009</v>
+        <v>0.0190664797873201</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0101521279812648</v>
+        <v>0.01047291689214531</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03446889603164148</v>
+        <v>0.0334094182368336</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -7935,19 +7935,19 @@
         <v>10323</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5409</v>
+        <v>5378</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19433</v>
+        <v>20053</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01409560536289437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00738637250291636</v>
+        <v>0.007343278017908643</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02653649554497055</v>
+        <v>0.02738218087063782</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -7956,19 +7956,19 @@
         <v>23492</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14967</v>
+        <v>14902</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35755</v>
+        <v>36478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01650836318196906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01051736802930346</v>
+        <v>0.01047235356260247</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0251257326292803</v>
+        <v>0.02563420296697044</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>53941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41092</v>
+        <v>41394</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69337</v>
+        <v>69774</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07809429392908351</v>
+        <v>0.07809429392908353</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05949215689586001</v>
+        <v>0.05992990341653195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1003849195449531</v>
+        <v>0.1010177255641455</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -8006,19 +8006,19 @@
         <v>66374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56235</v>
+        <v>55145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>79792</v>
+        <v>79211</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09063521974803151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07678989786157717</v>
+        <v>0.07530190590169654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1089570179055689</v>
+        <v>0.1081647602437142</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -8027,19 +8027,19 @@
         <v>120315</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103872</v>
+        <v>102114</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>141411</v>
+        <v>139626</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08454811831585279</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07299355694547774</v>
+        <v>0.07175789814724573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09937282876070121</v>
+        <v>0.09811861093631831</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>403555</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>376050</v>
+        <v>377144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>432765</v>
+        <v>432184</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5842613830508666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5444390831989229</v>
+        <v>0.5460240207688414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6265503515752227</v>
+        <v>0.6257101884336123</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>740</v>
@@ -8077,19 +8077,19 @@
         <v>429465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>405886</v>
+        <v>407570</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>451128</v>
+        <v>451294</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5864427637637697</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5542455115809407</v>
+        <v>0.5565444673175974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6160241943728808</v>
+        <v>0.6162502231190524</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1182</v>
@@ -8098,19 +8098,19 @@
         <v>833020</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>796234</v>
+        <v>797718</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>870496</v>
+        <v>871265</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.585383967479242</v>
+        <v>0.5853839674792422</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5595332374114546</v>
+        <v>0.5605763219734677</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6117190939552813</v>
+        <v>0.6122594031254395</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>203980</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178265</v>
+        <v>176676</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231166</v>
+        <v>229836</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2953199967360099</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2580894837145937</v>
+        <v>0.2557892374871804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.334678830160072</v>
+        <v>0.3327535968851374</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>340</v>
@@ -8148,19 +8148,19 @@
         <v>216240</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196152</v>
+        <v>195826</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>237738</v>
+        <v>236332</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2952801448925528</v>
+        <v>0.2952801448925529</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2678489301348619</v>
+        <v>0.2674048663703333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3246363618093348</v>
+        <v>0.3227163874517026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>534</v>
@@ -8169,19 +8169,19 @@
         <v>420221</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>389495</v>
+        <v>387483</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456992</v>
+        <v>454921</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2952994881385687</v>
+        <v>0.2952994881385688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2737079001558052</v>
+        <v>0.2722938044415338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3211398795755131</v>
+        <v>0.3196840312226241</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>16064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8726</v>
+        <v>8793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28406</v>
+        <v>27982</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02325784649671974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01263322988130518</v>
+        <v>0.01273015356744575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04112633224255625</v>
+        <v>0.04051250062409661</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -8219,19 +8219,19 @@
         <v>9920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5559</v>
+        <v>5338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19225</v>
+        <v>17714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01354626623275151</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007591103767087267</v>
+        <v>0.007289344103320015</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02625245347643547</v>
+        <v>0.02418865645140499</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -8240,19 +8240,19 @@
         <v>25985</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17063</v>
+        <v>17069</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39400</v>
+        <v>41112</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01826006288436735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01199077823842694</v>
+        <v>0.01199476662440913</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02768747448894292</v>
+        <v>0.02889012692558884</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>14819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8904</v>
+        <v>8503</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25891</v>
+        <v>26139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01414348007685812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008498210161441149</v>
+        <v>0.008115095210099304</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02471031238035045</v>
+        <v>0.02494770886156531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -8365,19 +8365,19 @@
         <v>11468</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7232</v>
+        <v>7097</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18726</v>
+        <v>17811</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01070909245765034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006753361791298767</v>
+        <v>0.006627457862736246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01748722182916675</v>
+        <v>0.01663296376107181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -8386,19 +8386,19 @@
         <v>26287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18161</v>
+        <v>17957</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37734</v>
+        <v>39477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01240758824121549</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008572202413312809</v>
+        <v>0.008475667847588365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01781083850397409</v>
+        <v>0.01863358644953714</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>42224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30769</v>
+        <v>31347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>55441</v>
+        <v>56416</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04029933267297073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02936589644698447</v>
+        <v>0.02991795442249367</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05291380343616574</v>
+        <v>0.05384364417524332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -8436,19 +8436,19 @@
         <v>74788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62210</v>
+        <v>61859</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91301</v>
+        <v>92816</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06984081817524836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05809460887033278</v>
+        <v>0.05776714456716969</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0852612984341066</v>
+        <v>0.08667646859255011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>171</v>
@@ -8457,19 +8457,19 @@
         <v>117013</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>99153</v>
+        <v>98963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137267</v>
+        <v>137768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05523090976384905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04680116092489704</v>
+        <v>0.04671115930206579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06479102961789716</v>
+        <v>0.06502772326140557</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>556266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>521180</v>
+        <v>520552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>588054</v>
+        <v>592649</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5309049828783549</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4974192518612438</v>
+        <v>0.4968192478475337</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5612436007286373</v>
+        <v>0.565629541478377</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>825</v>
@@ -8507,19 +8507,19 @@
         <v>579705</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>553579</v>
+        <v>547549</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>610769</v>
+        <v>607696</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5413566255295154</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.51695895124627</v>
+        <v>0.5113275019046205</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5703656261777558</v>
+        <v>0.5674955728450556</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1341</v>
@@ -8528,19 +8528,19 @@
         <v>1135971</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1086487</v>
+        <v>1088020</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1179424</v>
+        <v>1185359</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5361877066587852</v>
+        <v>0.536187706658785</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5128306732465379</v>
+        <v>0.5135545081464066</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5566978811770174</v>
+        <v>0.5594990513088511</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>404348</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>369024</v>
+        <v>369283</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>439056</v>
+        <v>442626</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3859129556010251</v>
+        <v>0.3859129556010252</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3521993394044535</v>
+        <v>0.3524469483560159</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4190392074668368</v>
+        <v>0.4224459755738002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>533</v>
@@ -8578,19 +8578,19 @@
         <v>387233</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>356116</v>
+        <v>359013</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>414398</v>
+        <v>416671</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3616163312718837</v>
+        <v>0.3616163312718838</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3325579537733085</v>
+        <v>0.3352632511265029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3869847234404052</v>
+        <v>0.3891073007527909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>885</v>
@@ -8599,19 +8599,19 @@
         <v>791580</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>747293</v>
+        <v>746380</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>836005</v>
+        <v>837518</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3736323639838327</v>
+        <v>0.3736323639838326</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3527282942618233</v>
+        <v>0.3522974747702562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3946013631078746</v>
+        <v>0.3953156295553503</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>30112</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19246</v>
+        <v>20295</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43790</v>
+        <v>44343</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02873924877079094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01836843728734291</v>
+        <v>0.01936948792892675</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04179350277402372</v>
+        <v>0.04232154884483409</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -8649,19 +8649,19 @@
         <v>17644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10647</v>
+        <v>10760</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28289</v>
+        <v>29172</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01647713256570234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009942554152091967</v>
+        <v>0.01004790489566778</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02641741031974408</v>
+        <v>0.02724178472091549</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -8670,19 +8670,19 @@
         <v>47756</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>34475</v>
+        <v>35864</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>62536</v>
+        <v>65127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02254143135231778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01627225961081032</v>
+        <v>0.01692818785370222</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02951752841527183</v>
+        <v>0.03074070702532099</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>3809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>870</v>
+        <v>899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12032</v>
+        <v>13363</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004742702457382593</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001083267666764099</v>
+        <v>0.001119999671931957</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01498254739004193</v>
+        <v>0.01663934713095441</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -8795,19 +8795,19 @@
         <v>9142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5173</v>
+        <v>4813</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15150</v>
+        <v>14840</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01127043281432895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006377760804468656</v>
+        <v>0.005933925073032441</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0186761779043026</v>
+        <v>0.01829507679059724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -8816,19 +8816,19 @@
         <v>12951</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7502</v>
+        <v>7559</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21273</v>
+        <v>20692</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008022940429264531</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004647469861347062</v>
+        <v>0.004682810110333981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01317821638651141</v>
+        <v>0.01281823492494008</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>36960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26452</v>
+        <v>24850</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52509</v>
+        <v>51464</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04602382634042555</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03293869282577457</v>
+        <v>0.03094423665405932</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06538462832052995</v>
+        <v>0.06408324283681616</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -8866,19 +8866,19 @@
         <v>62338</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49099</v>
+        <v>48447</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79473</v>
+        <v>80101</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.0768490752709912</v>
+        <v>0.07684907527099123</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06052848762028235</v>
+        <v>0.05972459546839495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09797346846766977</v>
+        <v>0.09874716827952311</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -8887,19 +8887,19 @@
         <v>99298</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80305</v>
+        <v>80907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>120828</v>
+        <v>119822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06151376641234594</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0497480288012855</v>
+        <v>0.05012059470745664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07485122532015606</v>
+        <v>0.07422798598559301</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>429368</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>398864</v>
+        <v>393791</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>463678</v>
+        <v>460983</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5346562063850649</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4966721506023145</v>
+        <v>0.4903547705665676</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5773796340531561</v>
+        <v>0.5740232316224487</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>628</v>
@@ -8937,19 +8937,19 @@
         <v>464802</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>435429</v>
+        <v>436918</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>490207</v>
+        <v>490711</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.5730012437301401</v>
+        <v>0.5730012437301402</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5367900242671773</v>
+        <v>0.5386257713109833</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6043198146781726</v>
+        <v>0.6049411698270527</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1006</v>
@@ -8958,19 +8958,19 @@
         <v>894170</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>852417</v>
+        <v>850596</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>937675</v>
+        <v>935659</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5539249017285697</v>
+        <v>0.5539249017285696</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5280598264947854</v>
+        <v>0.5269315501779805</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.580875918741822</v>
+        <v>0.5796265601697326</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>312322</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>279646</v>
+        <v>278591</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>344136</v>
+        <v>346608</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3889087265546577</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3482204141699806</v>
+        <v>0.34690566012648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4285236435197334</v>
+        <v>0.4316026803653667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>303</v>
@@ -9008,19 +9008,19 @@
         <v>254900</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>234626</v>
+        <v>230183</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>284051</v>
+        <v>281813</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3142376328387821</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2892440670593902</v>
+        <v>0.2837666456293174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3501734418166392</v>
+        <v>0.3474154735254931</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>546</v>
@@ -9029,19 +9029,19 @@
         <v>567223</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>519806</v>
+        <v>525751</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>604741</v>
+        <v>610566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3513858903443471</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.322011896657758</v>
+        <v>0.3256951791033153</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3746281940940044</v>
+        <v>0.3782362406171564</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>20614</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12446</v>
+        <v>12307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>32944</v>
+        <v>35111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02566853826246926</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01549750300618038</v>
+        <v>0.01532431342756838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04102191388343131</v>
+        <v>0.04372126977049807</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -9079,19 +9079,19 @@
         <v>19989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12635</v>
+        <v>12297</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32225</v>
+        <v>31276</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02464161534575762</v>
+        <v>0.02464161534575763</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01557563314755768</v>
+        <v>0.01515935981685763</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03972646643433079</v>
+        <v>0.03855677115264485</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>38</v>
@@ -9100,19 +9100,19 @@
         <v>40602</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28141</v>
+        <v>28185</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>57504</v>
+        <v>57962</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02515250108547271</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01743304021857636</v>
+        <v>0.01746046311503381</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03562296163683994</v>
+        <v>0.03590665609570864</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>5906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2836</v>
+        <v>2800</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11023</v>
+        <v>10777</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.005968682610592827</v>
+        <v>0.005968682610592828</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002866314265659225</v>
+        <v>0.002830105882319545</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01114052809232783</v>
+        <v>0.01089195740054526</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -9225,19 +9225,19 @@
         <v>17293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11531</v>
+        <v>11339</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23901</v>
+        <v>24519</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01547955192769881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01032218099809298</v>
+        <v>0.01014974757418043</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02139437875153493</v>
+        <v>0.02194774775663541</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -9246,19 +9246,19 @@
         <v>23199</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16929</v>
+        <v>16011</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32380</v>
+        <v>30873</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01101236437026967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008036017550669449</v>
+        <v>0.007600409046910336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01537068909547117</v>
+        <v>0.01465546203901287</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>87326</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>70927</v>
+        <v>73014</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105282</v>
+        <v>107831</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08825710197385994</v>
+        <v>0.08825710197385998</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07168281908120444</v>
+        <v>0.07379196541960285</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1064040819301594</v>
+        <v>0.1089803743747504</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>199</v>
@@ -9296,19 +9296,19 @@
         <v>129934</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>113763</v>
+        <v>113811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147801</v>
+        <v>150752</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1163089047722247</v>
+        <v>0.1163089047722248</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1018340412782677</v>
+        <v>0.1018769245188985</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1323026688337141</v>
+        <v>0.1349442031171897</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>306</v>
@@ -9317,19 +9317,19 @@
         <v>217260</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>191880</v>
+        <v>190917</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>243792</v>
+        <v>243589</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1031331728547514</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09108534700856905</v>
+        <v>0.09062832404515107</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1157278316974891</v>
+        <v>0.1156315289294827</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>528404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>494605</v>
+        <v>495810</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>561231</v>
+        <v>564548</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5340366885494415</v>
+        <v>0.5340366885494416</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4998773527559922</v>
+        <v>0.5010953825209759</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5672135823948511</v>
+        <v>0.5705659008007001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>855</v>
@@ -9367,19 +9367,19 @@
         <v>603718</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>573466</v>
+        <v>572426</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>632676</v>
+        <v>634385</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5404125297144579</v>
+        <v>0.5404125297144577</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5133328881894633</v>
+        <v>0.5124025917765226</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5663347548305034</v>
+        <v>0.5678642973668059</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1392</v>
@@ -9388,19 +9388,19 @@
         <v>1132121</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1087613</v>
+        <v>1088713</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1176863</v>
+        <v>1176135</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.5374178425443504</v>
+        <v>0.5374178425443505</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5162896575296401</v>
+        <v>0.5168119035278902</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5586566197065297</v>
+        <v>0.5583113411937364</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>333236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>300466</v>
+        <v>301413</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>365527</v>
+        <v>364040</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3367881133715139</v>
+        <v>0.336788113371514</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3036690202288988</v>
+        <v>0.3046262640647239</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.369423764778923</v>
+        <v>0.3679211792743999</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>444</v>
@@ -9438,19 +9438,19 @@
         <v>338455</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>311710</v>
+        <v>309267</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>366480</v>
+        <v>365644</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3029654223922169</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2790246050579271</v>
+        <v>0.2768377414436361</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3280518125620235</v>
+        <v>0.3273027773360052</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>764</v>
@@ -9459,19 +9459,19 @@
         <v>671691</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>629773</v>
+        <v>628317</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>711232</v>
+        <v>711529</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3188516993732007</v>
+        <v>0.3188516993732008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2989532234184462</v>
+        <v>0.2982620004707763</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3376220069477678</v>
+        <v>0.3377625980088604</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>34581</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24912</v>
+        <v>23669</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49021</v>
+        <v>48560</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03494941349459173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02517722063664908</v>
+        <v>0.02392111186487552</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04954394734840711</v>
+        <v>0.04907757778076714</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -9509,19 +9509,19 @@
         <v>27743</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19080</v>
+        <v>18654</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39868</v>
+        <v>41771</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02483359119340174</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01707887665936475</v>
+        <v>0.016698307587406</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03568766519383888</v>
+        <v>0.03739072365342625</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>63</v>
@@ -9530,19 +9530,19 @@
         <v>62323</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47439</v>
+        <v>46492</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>80345</v>
+        <v>80546</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0295849208574277</v>
+        <v>0.02958492085742771</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02251942722319828</v>
+        <v>0.02206966515846398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03813954701517113</v>
+        <v>0.03823498072986176</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>37703</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27497</v>
+        <v>25616</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53632</v>
+        <v>50597</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01067768962046215</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007787192377840114</v>
+        <v>0.007254658831385504</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01518893778731233</v>
+        <v>0.01432949251359583</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>75</v>
@@ -9655,19 +9655,19 @@
         <v>48225</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37684</v>
+        <v>38839</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60678</v>
+        <v>61363</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01292393954953934</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01009894374105532</v>
+        <v>0.01040853785010569</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01626114654179136</v>
+        <v>0.01644483601817274</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>117</v>
@@ -9676,19 +9676,19 @@
         <v>85928</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>70163</v>
+        <v>68837</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103695</v>
+        <v>102681</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0118318165868066</v>
+        <v>0.01183181658680659</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009661047541960862</v>
+        <v>0.009478489039487514</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01427817905934632</v>
+        <v>0.01413856998474159</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>220452</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>194888</v>
+        <v>192065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>250719</v>
+        <v>249248</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.06243310972830685</v>
+        <v>0.06243310972830683</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05519350137432651</v>
+        <v>0.05439395308821184</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07100497640769481</v>
+        <v>0.07058852076072288</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>526</v>
@@ -9726,19 +9726,19 @@
         <v>333434</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>305063</v>
+        <v>302727</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>364776</v>
+        <v>364390</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08935711861364765</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08175408910271394</v>
+        <v>0.08112792746608201</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09775653835150221</v>
+        <v>0.09765323527350103</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>787</v>
@@ -9747,19 +9747,19 @@
         <v>553885</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>514825</v>
+        <v>516494</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>599171</v>
+        <v>597599</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07626671047523492</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07088838764199333</v>
+        <v>0.07111817496080065</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08250229480029107</v>
+        <v>0.08228585269799148</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>1917593</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1850338</v>
+        <v>1852138</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1978993</v>
+        <v>1982101</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5430728976351962</v>
+        <v>0.5430728976351961</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5240260944688171</v>
+        <v>0.5245357936470524</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5604618243724391</v>
+        <v>0.5613421532229639</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3048</v>
@@ -9797,19 +9797,19 @@
         <v>2077690</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2022975</v>
+        <v>2017316</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2127046</v>
+        <v>2128710</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.5568014838640987</v>
+        <v>0.5568014838640986</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.542138459626397</v>
+        <v>0.5406218013672563</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5700284287144125</v>
+        <v>0.5704744925748882</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4921</v>
@@ -9818,19 +9818,19 @@
         <v>3995282</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3917432</v>
+        <v>3912792</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4087318</v>
+        <v>4077405</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5501266681758015</v>
+        <v>0.5501266681758014</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5394070918608931</v>
+        <v>0.5387681948425476</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5627994348986242</v>
+        <v>0.561434481335357</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1253886</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1192347</v>
+        <v>1191974</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1325058</v>
+        <v>1318953</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3551074703583819</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3376792451621193</v>
+        <v>0.3375737766789994</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3752637184163353</v>
+        <v>0.3735349188391369</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1620</v>
@@ -9868,19 +9868,19 @@
         <v>1196829</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1144458</v>
+        <v>1146053</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1244509</v>
+        <v>1253037</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3207388908875937</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3067040061146893</v>
+        <v>0.3071315073803489</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3335167073989423</v>
+        <v>0.3358021626947141</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2729</v>
@@ -9889,19 +9889,19 @@
         <v>2450714</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2364848</v>
+        <v>2372331</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2531649</v>
+        <v>2536367</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3374488368070903</v>
+        <v>0.3374488368070902</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3256255573511035</v>
+        <v>0.3266559320415989</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3485930784270609</v>
+        <v>0.3492427493201936</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>101371</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>82462</v>
+        <v>81829</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>124050</v>
+        <v>123430</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02870883265765302</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02335374959491692</v>
+        <v>0.02317456416515385</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03513160857927087</v>
+        <v>0.03495592674365869</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>88</v>
@@ -9939,19 +9939,19 @@
         <v>75296</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>59343</v>
+        <v>61086</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94118</v>
+        <v>96910</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.02017856708512071</v>
+        <v>0.02017856708512072</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01590343854061945</v>
+        <v>0.01637034574976391</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02522282862783196</v>
+        <v>0.02597097424401046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>176</v>
@@ -9960,19 +9960,19 @@
         <v>176667</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>147526</v>
+        <v>151907</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>205682</v>
+        <v>208104</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.0243259679550668</v>
+        <v>0.02432596795506681</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02031350731300082</v>
+        <v>0.02091667725030369</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02832119184630424</v>
+        <v>0.0286546737581212</v>
       </c>
     </row>
     <row r="33">
